--- a/sprint/sprint2 다운차트.xlsx
+++ b/sprint/sprint2 다운차트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdrn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdrn\Documents\GitHub\Earlybird\sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2550C258-B720-4A83-B178-D10A7DCD6043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E69F0DE-6041-41D3-B0D6-4CBC65F06DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,19 +320,19 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1490,6 +1490,21 @@
       <c r="C2">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -1498,6 +1513,21 @@
       <c r="C3">
         <v>10</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1507,6 +1537,21 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1516,6 +1561,21 @@
       <c r="C5">
         <v>5</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1527,6 +1587,21 @@
       <c r="C6">
         <v>10</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1535,6 +1610,21 @@
       <c r="C7">
         <v>10</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1544,6 +1634,21 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1553,6 +1658,21 @@
       <c r="C9">
         <v>10</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1592,24 +1712,24 @@
         <v>57</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:H11" si="1">SUM(D2:D9)</f>
-        <v>0</v>
+        <f>C10-SUM(D2:D9)</f>
+        <v>57</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="E11:H11" si="1">D11-SUM(E2:E9)</f>
+        <v>57</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/sprint/sprint2 다운차트.xlsx
+++ b/sprint/sprint2 다운차트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdrn\Documents\GitHub\Earlybird\sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E69F0DE-6041-41D3-B0D6-4CBC65F06DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C237578-9FEC-4033-9827-2C3D39002072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
+    <workbookView xWindow="2475" yWindow="1140" windowWidth="21600" windowHeight="11835" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,19 +231,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.6</c:v>
+                  <c:v>85.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.200000000000003</c:v>
+                  <c:v>64.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.800000000000004</c:v>
+                  <c:v>42.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.400000000000004</c:v>
+                  <c:v>21.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -317,22 +317,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1488,16 +1488,16 @@
         <v>11</v>
       </c>
       <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1511,16 +1511,16 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1559,16 +1559,16 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1680,23 +1680,23 @@
       </c>
       <c r="C10">
         <f>SUM(C2:C9)</f>
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D10">
         <f>C10-($C$10/5)</f>
-        <v>45.6</v>
+        <v>85.6</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:H10" si="0">D10-($C$10/5)</f>
-        <v>34.200000000000003</v>
+        <v>64.199999999999989</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>22.800000000000004</v>
+        <v>42.79999999999999</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>11.400000000000004</v>
+        <v>21.399999999999991</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -1709,27 +1709,27 @@
       </c>
       <c r="C11">
         <f>SUM(C2:C9)</f>
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D11">
-        <f>C10-SUM(D2:D9)</f>
-        <v>57</v>
+        <f>SUM(D2:D9)</f>
+        <v>20</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:H11" si="1">D11-SUM(E2:E9)</f>
-        <v>57</v>
+        <f t="shared" ref="E11:H11" si="1">SUM(E2:E9)</f>
+        <v>15</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sprint/sprint2 다운차트.xlsx
+++ b/sprint/sprint2 다운차트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdrn\Documents\GitHub\Earlybird\sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C237578-9FEC-4033-9827-2C3D39002072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98E3EA-E7D6-489D-9B21-F242DD66DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="1140" windowWidth="21600" windowHeight="11835" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
+    <workbookView xWindow="3075" yWindow="1395" windowWidth="21600" windowHeight="11835" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,19 +231,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.6</c:v>
+                  <c:v>93.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.199999999999989</c:v>
+                  <c:v>70.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.79999999999999</c:v>
+                  <c:v>46.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.399999999999991</c:v>
+                  <c:v>23.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -317,19 +317,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1488,19 +1488,19 @@
         <v>11</v>
       </c>
       <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
         <v>30</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -1565,13 +1565,13 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1588,16 +1588,16 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1611,16 +1611,16 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1659,16 +1659,16 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1680,23 +1680,23 @@
       </c>
       <c r="C10">
         <f>SUM(C2:C9)</f>
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <f>C10-($C$10/5)</f>
-        <v>85.6</v>
+        <v>93.6</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:H10" si="0">D10-($C$10/5)</f>
-        <v>64.199999999999989</v>
+        <v>70.199999999999989</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>42.79999999999999</v>
+        <v>46.79999999999999</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>21.399999999999991</v>
+        <v>23.399999999999991</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -1709,23 +1709,23 @@
       </c>
       <c r="C11">
         <f>SUM(C2:C9)</f>
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D11">
         <f>SUM(D2:D9)</f>
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:H11" si="1">SUM(E2:E9)</f>
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>

--- a/sprint/sprint2 다운차트.xlsx
+++ b/sprint/sprint2 다운차트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdrn\Documents\GitHub\Earlybird\sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98E3EA-E7D6-489D-9B21-F242DD66DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05137B-F9A4-4FB5-9913-01C36D7A2DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1395" windowWidth="21600" windowHeight="11835" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>project</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,73 @@
     <t>거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>fix-error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디테일뷰레이아웃 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 자신이 얼마나 운동했는지를 알기 위한 측정이다.
+개발자가 페이스를 계산하기 위한 기본적인 리소스다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자가 네이버 지도 API를 프로젝트에 추가 한 뒤에 지도가 필요한 모든
+ 액티비티에 API를 사용하여 정보를 전달한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 어느 기기에서든 자신의 기록을 볼 수 있게 회원가입을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 나중에 비교등을 할 수 있게 저장을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 운동 후 자신이 운동했던 기록을 자세하게 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자와 사용자가 앱을 원활히 사용할 수 있게한다. 고치는데 오래걸려 넣었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 나중에 비교등을 할 수 있게 저장을 한다.
+개발자의 입장에서 후에 러닝버디모드를 사용할 때 비교를 위한 소스이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 전의 기록을 더욱 자세히 보고 싶을 때 필요한 레이아웃이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자의 입장에서 통합이 서툴러 시간이 걸릴 때가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -134,6 +201,15 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -200,7 +276,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$H$1</c:f>
+              <c:f>Sheet1!$D$1:$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -226,7 +302,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$H$10</c:f>
+              <c:f>Sheet1!$D$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -286,7 +362,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$H$1</c:f>
+              <c:f>Sheet1!$D$1:$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -312,7 +388,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$11:$H$11</c:f>
+              <c:f>Sheet1!$D$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -323,16 +399,16 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -341,6 +417,418 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D2E7-4873-BC07-A6391437BC19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1219017040"/>
+        <c:axId val="1219014960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1219017040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219014960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1219014960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219017040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deal remaining work hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$20:$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>08월 16일</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>08월 17일</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>08월 18일</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08월 19일</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08월 20일</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>08월 23일</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08월 24일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.71428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-BDD2-46C6-AA13-2C3ABAC24B75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual remaining work hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$20:$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>08월 16일</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>08월 17일</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>08월 18일</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08월 19일</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08월 20일</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>08월 23일</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08월 24일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$30:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-BDD2-46C6-AA13-2C3ABAC24B75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -586,6 +1074,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1102,20 +1630,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1135,6 +2179,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9527</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>212351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281BCCC2-00BC-4AFB-83D2-43A68C0B6060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1440,20 +2522,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA002267-7EED-4303-8C2A-6AB8FE9AB489}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.25" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1461,87 +2545,94 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>44417</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>44418</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>44419</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>44420</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>44421</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
         <v>40</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3"/>
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1552,17 +2643,20 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
         <v>10</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1571,21 +2665,24 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>20</v>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -1594,22 +2691,23 @@
         <v>20</v>
       </c>
       <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="I6">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7">
         <v>15</v>
       </c>
@@ -1617,22 +2715,25 @@
         <v>15</v>
       </c>
       <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="I7">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1641,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1649,15 +2750,16 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9">
-        <v>10</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9">
         <v>10</v>
       </c>
@@ -1671,68 +2773,366 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
-        <f>SUM(C2:C9)</f>
+      <c r="D10">
+        <f>SUM(D2:D9)</f>
         <v>117</v>
       </c>
-      <c r="D10">
-        <f>C10-($C$10/5)</f>
+      <c r="E10">
+        <f>D10-($D$10/5)</f>
         <v>93.6</v>
       </c>
-      <c r="E10">
-        <f t="shared" ref="E10:H10" si="0">D10-($C$10/5)</f>
+      <c r="F10">
+        <f t="shared" ref="F10:I10" si="0">E10-($D$10/5)</f>
         <v>70.199999999999989</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>46.79999999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>23.399999999999991</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
-        <f>SUM(C2:C9)</f>
-        <v>117</v>
-      </c>
       <c r="D11">
         <f>SUM(D2:D9)</f>
+        <v>117</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E9)</f>
         <v>97</v>
       </c>
-      <c r="E11">
-        <f t="shared" ref="E11:H11" si="1">SUM(E2:E9)</f>
-        <v>81</v>
-      </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <f t="shared" ref="F11:I11" si="1">SUM(F2:F9)</f>
+        <v>80</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>0</v>
       </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44424</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44425</v>
+      </c>
+      <c r="G20" s="1">
+        <v>44426</v>
+      </c>
+      <c r="H20" s="1">
+        <v>44427</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44428</v>
+      </c>
+      <c r="J20" s="1">
+        <v>44431</v>
+      </c>
+      <c r="K20" s="1">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D21:D28)</f>
+        <v>68</v>
+      </c>
+      <c r="E29">
+        <f>D29-($D$29/7)</f>
+        <v>58.285714285714285</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:L29" si="2">E29-($D$29/7)</f>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>38.857142857142854</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>29.142857142857139</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>19.428571428571423</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>9.71428571428571</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D21:D28)</f>
+        <v>68</v>
+      </c>
+      <c r="E30">
+        <f>SUM(E21:E28)</f>
+        <v>61</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:I30" si="3">SUM(F21:F28)</f>
+        <v>57</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sprint/sprint2 다운차트.xlsx
+++ b/sprint/sprint2 다운차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdrn\Documents\GitHub\Earlybird\sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05137B-F9A4-4FB5-9913-01C36D7A2DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9E2E0C-169C-4D48-BEFC-3CD9A44237FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>project</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,14 @@
     <t>개발자의 입장에서 통합이 서툴러 시간이 걸릴 때가 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>레코드뷰레이아웃 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 지난 기록들을 볼 수 있으며, 러닝버디모드를 실행 할 때 필요한 기능이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -203,13 +211,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,25 +715,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.285714285714285</c:v>
+                  <c:v>60.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.571428571428569</c:v>
+                  <c:v>50.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.857142857142854</c:v>
+                  <c:v>40.571428571428584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.142857142857139</c:v>
+                  <c:v>30.428571428571441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.428571428571423</c:v>
+                  <c:v>20.285714285714299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.71428571428571</c:v>
+                  <c:v>10.142857142857157</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -805,19 +813,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2524,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA002267-7EED-4303-8C2A-6AB8FE9AB489}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2600,7 +2608,7 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="5"/>
       <c r="D3">
         <v>20</v>
       </c>
@@ -2625,7 +2633,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D4">
@@ -2681,7 +2689,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D6">
@@ -2707,7 +2715,7 @@
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="5"/>
       <c r="D7">
         <v>15</v>
       </c>
@@ -2732,7 +2740,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D8">
@@ -2759,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="5"/>
       <c r="D9">
         <v>10</v>
       </c>
@@ -2879,7 +2887,7 @@
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D21">
@@ -2892,6 +2900,9 @@
         <v>10</v>
       </c>
       <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
         <v>5</v>
       </c>
     </row>
@@ -2899,7 +2910,7 @@
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="5"/>
       <c r="D22">
         <v>10</v>
       </c>
@@ -2910,6 +2921,9 @@
         <v>8</v>
       </c>
       <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
         <v>5</v>
       </c>
     </row>
@@ -2933,6 +2947,9 @@
       <c r="G23">
         <v>5</v>
       </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2956,12 +2973,15 @@
       <c r="G24">
         <v>15</v>
       </c>
+      <c r="H24">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="5"/>
       <c r="D25">
         <v>10</v>
       </c>
@@ -2972,6 +2992,9 @@
         <v>10</v>
       </c>
       <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
         <v>10</v>
       </c>
     </row>
@@ -2995,6 +3018,9 @@
       <c r="G26">
         <v>3</v>
       </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -3016,10 +3042,33 @@
       <c r="G27">
         <v>3</v>
       </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -3027,31 +3076,31 @@
       </c>
       <c r="D29">
         <f>SUM(D21:D28)</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <f>D29-($D$29/7)</f>
-        <v>58.285714285714285</v>
+        <v>60.857142857142861</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:L29" si="2">E29-($D$29/7)</f>
-        <v>48.571428571428569</v>
+        <f t="shared" ref="F29:J29" si="2">E29-($D$29/7)</f>
+        <v>50.714285714285722</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>38.857142857142854</v>
+        <v>40.571428571428584</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>29.142857142857139</v>
+        <v>30.428571428571441</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>19.428571428571423</v>
+        <v>20.285714285714299</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>9.71428571428571</v>
+        <v>10.142857142857157</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3063,23 +3112,23 @@
       </c>
       <c r="D30">
         <f>SUM(D21:D28)</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <f>SUM(E21:E28)</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F30">
         <f t="shared" ref="F30:I30" si="3">SUM(F21:F28)</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>

--- a/sprint/sprint2 다운차트.xlsx
+++ b/sprint/sprint2 다운차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdrn\Documents\GitHub\Earlybird\sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9E2E0C-169C-4D48-BEFC-3CD9A44237FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6A81AB-6481-47C5-A204-BD565E55D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
   </bookViews>
@@ -828,7 +828,7 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,7 +2533,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2905,6 +2905,9 @@
       <c r="H21">
         <v>5</v>
       </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
@@ -2926,6 +2929,9 @@
       <c r="H22">
         <v>5</v>
       </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2950,6 +2956,9 @@
       <c r="H23">
         <v>5</v>
       </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2976,6 +2985,9 @@
       <c r="H24">
         <v>15</v>
       </c>
+      <c r="I24">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
@@ -2997,6 +3009,9 @@
       <c r="H25">
         <v>10</v>
       </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -3021,6 +3036,9 @@
       <c r="H26">
         <v>0</v>
       </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -3045,6 +3063,9 @@
       <c r="H27">
         <v>3</v>
       </c>
+      <c r="I27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -3069,6 +3090,9 @@
       <c r="H28">
         <v>0</v>
       </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -3132,7 +3156,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">

--- a/sprint/sprint2 다운차트.xlsx
+++ b/sprint/sprint2 다운차트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdrn\Documents\GitHub\Earlybird\sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6A81AB-6481-47C5-A204-BD565E55D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E259A31-FBAB-4B42-8016-7CA86592702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
+    <workbookView xWindow="3060" yWindow="1605" windowWidth="21600" windowHeight="11835" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -828,7 +828,7 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,7 +2533,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2908,6 +2908,9 @@
       <c r="I21">
         <v>0</v>
       </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
@@ -2932,6 +2935,9 @@
       <c r="I22">
         <v>0</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2959,6 +2965,9 @@
       <c r="I23">
         <v>5</v>
       </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2988,6 +2997,9 @@
       <c r="I24">
         <v>15</v>
       </c>
+      <c r="J24">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
@@ -3012,6 +3024,9 @@
       <c r="I25">
         <v>10</v>
       </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -3039,6 +3054,9 @@
       <c r="I26">
         <v>0</v>
       </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -3064,7 +3082,10 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3093,6 +3114,9 @@
       <c r="I28">
         <v>0</v>
       </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -3156,7 +3180,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">

--- a/sprint/sprint2 다운차트.xlsx
+++ b/sprint/sprint2 다운차트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdrn\Documents\GitHub\Earlybird\sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E259A31-FBAB-4B42-8016-7CA86592702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BAC201-F9F7-49C5-B6B6-72C4EA6CEE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1605" windowWidth="21600" windowHeight="11835" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BCE8D03A-5707-412C-9D98-9B30E872F9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>project</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,50 @@
   </si>
   <si>
     <t>사용자가 지난 기록들을 볼 수 있으며, 러닝버디모드를 실행 할 때 필요한 기능이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자가 버디모들를 구형할 떄, 거리를 비교해 사용자에게 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록비교하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 기록과 비교를 해 사용자가 현재 페이스를 잘 지키고 있는지 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record List 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버디모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 볼 수 있게 이전기록들을 보여주며, 버디모드 시 기록들을 비교를 할 수 있게 기록들의 정보를 넘겨준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성안내(TTS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 핸드폰을 보지않고도, 비교 결과를 알기위해 음성안내를 진행한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1042,6 +1086,381 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deal remaining work hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$34:$J$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>08월 30일</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>08월 31일</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>09월 01일</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>09월 02일</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09월 03일</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09월 06일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$43:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8333333333333233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-49D6-4C7D-B843-14129236E3FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual remaining work hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$34:$J$34</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>08월 30일</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>08월 31일</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>09월 01일</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>09월 02일</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09월 03일</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09월 06일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$44:$J$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-49D6-4C7D-B843-14129236E3FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="911796799"/>
+        <c:axId val="911800959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="911796799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="911800959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="911800959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="911796799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1122,6 +1541,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2154,20 +2613,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>362508</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>181534</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>135031</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2194,16 +3169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9527</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>356909</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>85164</xdr:rowOff>
+      <xdr:rowOff>40340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>178174</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>212351</xdr:rowOff>
+      <xdr:rowOff>167527</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2225,6 +3200,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACA4D9E-4A20-4710-829E-9336D66346CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2530,10 +3541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA002267-7EED-4303-8C2A-6AB8FE9AB489}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3194,36 +4205,304 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44438</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44439</v>
+      </c>
+      <c r="G34" s="1">
+        <v>44440</v>
+      </c>
+      <c r="H34" s="1">
+        <v>44441</v>
+      </c>
+      <c r="I34" s="1">
+        <v>44442</v>
+      </c>
+      <c r="J34" s="1">
+        <v>44445</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+    <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+    <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D35:D42)</f>
+        <v>65</v>
+      </c>
+      <c r="E43">
+        <f>D43-($D$29/6)</f>
+        <v>53.166666666666664</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:J43" si="4">E43-($D$29/6)</f>
+        <v>41.333333333333329</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>29.499999999999993</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>17.666666666666657</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>5.8333333333333233</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <f>SUM(D35:D42)</f>
+        <v>65</v>
+      </c>
+      <c r="E44">
+        <f>SUM(E35:E42)</f>
+        <v>58</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:J44" si="5">SUM(F35:F42)</f>
+        <v>48</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
